--- a/pdf-manager/Disbursement.xlsx
+++ b/pdf-manager/Disbursement.xlsx
@@ -70,10 +70,10 @@
     <t>Office Signature</t>
   </si>
   <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201 Greerbelt PKWY </t>
+    <t>Peter Buonaiuto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201 Greenbelt PKWY </t>
   </si>
   <si>
     <t xml:space="preserve">My Account </t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">My Manager </t>
   </si>
   <si>
-    <t xml:space="preserve">OFF campus </t>
+    <t xml:space="preserve">off campus </t>
   </si>
   <si>
     <t xml:space="preserve">Test purpose </t>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">Manager </t>
   </si>
   <si>
-    <t xml:space="preserve">Bund </t>
+    <t xml:space="preserve">fund </t>
   </si>
 </sst>
 </file>
@@ -453,8 +453,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>

--- a/pdf-manager/Disbursement.xlsx
+++ b/pdf-manager/Disbursement.xlsx
@@ -73,7 +73,7 @@
     <t>Peter Buonaiuto</t>
   </si>
   <si>
-    <t xml:space="preserve">201 Greenbelt PKWY </t>
+    <t xml:space="preserve">201 Greenbelt </t>
   </si>
   <si>
     <t xml:space="preserve">My Account </t>
@@ -454,7 +454,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
